--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/CENTRALIZADORA BALANCE.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/CENTRALIZADORA BALANCE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82395D01-9C3B-437A-A096-569D15A931AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9860216-C240-4C36-A62E-22FCFBBB98D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,10 +145,10 @@
     <t>(Cifras expresadas en quetzales)</t>
   </si>
   <si>
-    <t>DEL 01 DE ENERO AL 31  DE DICIEMBRE DE 2024</t>
-  </si>
-  <si>
     <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
@@ -425,6 +425,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -439,9 +442,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -893,7 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:F7"/>
     </sheetView>
   </sheetViews>
@@ -921,23 +921,23 @@
     <row r="5" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="33"/>
-      <c r="D5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="39"/>
+      <c r="D5" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="40"/>
       <c r="F5" s="33"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="36" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="34"/>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="39"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="34"/>
       <c r="H6" s="6" t="s">
         <v>1</v>
@@ -945,12 +945,12 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="C7" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
       <c r="H7" s="6" t="s">
         <v>2</v>
       </c>
@@ -958,10 +958,10 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="34"/>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="41"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="35"/>
       <c r="H8" s="6" t="s">
         <v>3</v>
@@ -970,10 +970,10 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="34"/>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="34"/>
       <c r="H9" s="6" t="s">
         <v>2</v>
@@ -981,14 +981,14 @@
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="40"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
     </row>
     <row r="11" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25"/>
@@ -1002,10 +1002,10 @@
       <c r="F11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="37"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="27" t="s">
         <v>6</v>
       </c>
